--- a/medicine/Enfance/Aimée_Sommerfelt/Aimée_Sommerfelt.xlsx
+++ b/medicine/Enfance/Aimée_Sommerfelt/Aimée_Sommerfelt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aim%C3%A9e_Sommerfelt</t>
+          <t>Aimée_Sommerfelt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aimée Sommerfelt (2 avril 1892 – 7 août 1975 [2],[3]) est une auteure norvégienne de littérature d'enfance et de jeunesse. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aimée Sommerfelt (2 avril 1892 – 7 août 1975 ,) est une auteure norvégienne de littérature d'enfance et de jeunesse. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aim%C3%A9e_Sommerfelt</t>
+          <t>Aimée_Sommerfelt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aimée Sommerfelt est surtout connue pour son livre édité en 1959, Maya aux yeux bleux (no). En 1961, ce livre a été traduit en anglais sous le titre The Road to Agra et publié aux États-Unis par Evelyn Ramsden. Pour The Road to Agra, Sommerfelt remporte le prix Jane Addams Children's Book Award en 1962[4]  et le prix Josette Frank. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aimée Sommerfelt est surtout connue pour son livre édité en 1959, Maya aux yeux bleux (no). En 1961, ce livre a été traduit en anglais sous le titre The Road to Agra et publié aux États-Unis par Evelyn Ramsden. Pour The Road to Agra, Sommerfelt remporte le prix Jane Addams Children's Book Award en 1962  et le prix Josette Frank. 
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aim%C3%A9e_Sommerfelt</t>
+          <t>Aimée_Sommerfelt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sommerfelt est la fille d'un psychiatre, Henrik Arnold Thaulow Dedichen (en) (à ne pas confondre avec l'écrivain Henrik Arnold Thaulow Wergeland)[3]. 
-Elle est mariée à Alf Sommerfelt (en), linguiste. Elle le suit lors de nombreux voyages à travers le monde. Elle s'inspire de ces voyages pour situer le cadre de ses livres[5] 
-Elle est devenue aveugle à la fin de sa vie[3],[6]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sommerfelt est la fille d'un psychiatre, Henrik Arnold Thaulow Dedichen (en) (à ne pas confondre avec l'écrivain Henrik Arnold Thaulow Wergeland). 
+Elle est mariée à Alf Sommerfelt (en), linguiste. Elle le suit lors de nombreux voyages à travers le monde. Elle s'inspire de ces voyages pour situer le cadre de ses livres 
+Elle est devenue aveugle à la fin de sa vie,. 
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aim%C3%A9e_Sommerfelt</t>
+          <t>Aimée_Sommerfelt</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Thèmes dans son œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses livres mettent généralement en évidence des problèmes de justice sociale. Les enfants protagonistes sont placés dans des conditions difficiles, telles que la pauvreté et la guerre[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses livres mettent généralement en évidence des problèmes de justice sociale. Les enfants protagonistes sont placés dans des conditions difficiles, telles que la pauvreté et la guerre.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aim%C3%A9e_Sommerfelt</t>
+          <t>Aimée_Sommerfelt</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,11 +624,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Livres en français
-Maya aux yeux bleus (1963), illustrations de Luce Lagarde, traduit du norvégien par Marguerite Gay et Jane Veil GP, coll. Rouge et or Spirale[7]
-Le bungalow blanc[8] (1965)
+Maya aux yeux bleus (1963), illustrations de Luce Lagarde, traduit du norvégien par Marguerite Gay et Jane Veil GP, coll. Rouge et or Spirale
+Le bungalow blanc (1965)
 Livres en anglais
 Miriam (1950)
 The Road to Agra (1959)
@@ -626,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aim%C3%A9e_Sommerfelt</t>
+          <t>Aimée_Sommerfelt</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,13 +664,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1962 :
 Prix Jane Addams Children's Book Award pour Maya aux yeux bleux
 Prix Josette Frank pour Maya aux yeux bleux
-(international) « Honor List »[9], de l' IBBY, pour Maya aux yeux bleux
-1966 : (international) « Honor List »[9], de l' IBBY, pour Pablo og de angre</t>
+(international) « Honor List », de l' IBBY, pour Maya aux yeux bleux
+1966 : (international) « Honor List », de l' IBBY, pour Pablo og de angre</t>
         </is>
       </c>
     </row>
